--- a/speedup_profile.xlsx
+++ b/speedup_profile.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricciwoo/Downloads/GSoC_Dipy/registration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD233636-B57C-2142-96E7-E51DF8882432}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BE2C1B-048A-8840-A0DB-AFA5C57371FB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{50A14C59-320A-354D-AC1D-B4333EB57C32}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" activeTab="2" xr2:uid="{50A14C59-320A-354D-AC1D-B4333EB57C32}"/>
   </bookViews>
   <sheets>
     <sheet name="origin-gradient_time" sheetId="1" r:id="rId1"/>
     <sheet name="origin-gradient_profile" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t># threads</t>
   </si>
@@ -89,15 +90,94 @@
   </si>
   <si>
     <t>2d sparse</t>
+  </si>
+  <si>
+    <t>original</t>
+  </si>
+  <si>
+    <t>dynamic 
+allocation</t>
+  </si>
+  <si>
+    <t>local 
+function</t>
+  </si>
+  <si>
+    <t>test 1</t>
+  </si>
+  <si>
+    <t>test 2</t>
+  </si>
+  <si>
+    <t>test 3</t>
+  </si>
+  <si>
+    <t>test 4</t>
+  </si>
+  <si>
+    <t>test 5</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>sl_test_grad
+_3d.py</t>
+  </si>
+  <si>
+    <t>speedup</t>
+  </si>
+  <si>
+    <t>optimize</t>
+  </si>
+  <si>
+    <t>sl_aff_reg_3d.py</t>
+  </si>
+  <si>
+    <t>62.1 s</t>
+  </si>
+  <si>
+    <t>27.55 s</t>
+  </si>
+  <si>
+    <t>23.8 s</t>
+  </si>
+  <si>
+    <t>41.8 s</t>
+  </si>
+  <si>
+    <t>27.34 s</t>
+  </si>
+  <si>
+    <t>3.65 s</t>
+  </si>
+  <si>
+    <t>9.35 s</t>
+  </si>
+  <si>
+    <t>9.41 s</t>
+  </si>
+  <si>
+    <t>41.7 s</t>
+  </si>
+  <si>
+    <t>27.39 s</t>
+  </si>
+  <si>
+    <t>3.54 s</t>
+  </si>
+  <si>
+    <t>9.37 s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -156,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -185,7 +265,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -767,7 +861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC2FF7A-9AC1-0A46-80B2-566A9AFFAA7C}">
   <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -982,4 +1076,210 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE665C02-7C88-8B42-AECA-1117899CE777}">
+  <dimension ref="B4:J18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.23158000000000001</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4.3943999999999997E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.5562999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.21894</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5.1244999999999999E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2.6870999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.21376999999999999</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5.5634000000000003E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3.2222000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.19899</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4.0365999999999999E-2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2.6401999999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.21389</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5.1103000000000003E-2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5.2336000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="5">
+        <f>AVERAGE(C5:C9)</f>
+        <v>0.21543399999999999</v>
+      </c>
+      <c r="D10" s="11">
+        <f t="shared" ref="D10:E10" si="0">AVERAGE(D5:D9)</f>
+        <v>4.8458399999999999E-2</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
+        <v>3.2678799999999994E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13">
+        <f>$C10/D10</f>
+        <v>4.4457514073927324</v>
+      </c>
+      <c r="E11" s="13">
+        <f>$C10/E10</f>
+        <v>6.5924697357308109</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="B14" s="14"/>
+      <c r="G14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="G16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G17" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>